--- a/nhtr.xlsx
+++ b/nhtr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{6F36782A-049B-F045-BE3D-1AE609A50F72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{A86BD467-D8A6-E741-AC16-5F830496D07F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -817,10 +817,10 @@
   <dimension ref="A1:AS97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1160,9 +1160,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="3">
-        <v>10</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1180,7 +1178,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="4">
         <f>SUM(B10:R10)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>11</v>
@@ -2026,7 +2024,7 @@
       </c>
       <c r="C33" s="8">
         <f>SUM(C2:C32)</f>
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D33" s="8">
         <f>SUM(D2:D32)</f>
@@ -2090,7 +2088,7 @@
       </c>
       <c r="S33" s="10">
         <f>SUM(B33:R33)</f>
-        <v>2291</v>
+        <v>2281</v>
       </c>
       <c r="T33" s="6"/>
     </row>
@@ -2551,7 +2549,7 @@
         <v>220</v>
       </c>
       <c r="C43" s="1">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E43" s="1">
         <v>100</v>
@@ -2570,7 +2568,7 @@
       </c>
       <c r="S43" s="11">
         <f>SUM(B43:R43)</f>
-        <v>2291</v>
+        <v>2281</v>
       </c>
       <c r="T43" s="1" t="s">
         <v>20</v>
@@ -2644,7 +2642,7 @@
       </c>
       <c r="C47" s="4">
         <f>SUM(C35:C46)</f>
-        <v>1720</v>
+        <v>1710</v>
       </c>
       <c r="D47" s="4">
         <f>SUM(D35:D46)</f>
@@ -2708,7 +2706,7 @@
       </c>
       <c r="S47" s="15">
         <f>SUM(S35:S46)</f>
-        <v>71821</v>
+        <v>71811</v>
       </c>
       <c r="U47" s="1">
         <f>MAX(U35:U46)</f>
@@ -2716,11 +2714,11 @@
       </c>
       <c r="W47" s="1">
         <f>W63</f>
-        <v>53180</v>
+        <v>53190</v>
       </c>
       <c r="X47" s="1">
         <f>W47-Y47-AA47</f>
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="Y47" s="1">
         <v>52398</v>
@@ -2865,7 +2863,7 @@
       </c>
       <c r="C51" s="4">
         <f>C47</f>
-        <v>1720</v>
+        <v>1710</v>
       </c>
       <c r="D51" s="4">
         <f>D47</f>
@@ -2929,7 +2927,7 @@
       </c>
       <c r="S51" s="15">
         <f>S47</f>
-        <v>71821</v>
+        <v>71811</v>
       </c>
       <c r="U51" s="6">
         <f>U47</f>
@@ -3044,7 +3042,7 @@
       </c>
       <c r="C63" s="7">
         <f>SUM(C50:C62)</f>
-        <v>5165</v>
+        <v>5155</v>
       </c>
       <c r="D63" s="7">
         <f>SUM(D50:D62)</f>
@@ -3108,7 +3106,7 @@
       </c>
       <c r="S63" s="15">
         <f>SUM(S50:S62)</f>
-        <v>112514</v>
+        <v>112504</v>
       </c>
       <c r="U63" s="6">
         <f>SUM(U50:U62)</f>
@@ -3116,7 +3114,7 @@
       </c>
       <c r="W63" s="1">
         <f>U63-S63</f>
-        <v>53180</v>
+        <v>53190</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
